--- a/scripts/old_data_migration_to_xml/FilesToRead/MappedExcel_Pune/FF_Old_New_QuestionMapping_Parag.xlsx
+++ b/scripts/old_data_migration_to_xml/FilesToRead/MappedExcel_Pune/FF_Old_New_QuestionMapping_Parag.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="1330">
   <si>
     <t>begin_group</t>
   </si>
@@ -3582,9 +3582,6 @@
     <t>Contract/casual Worker</t>
   </si>
   <si>
-    <t>9,10</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -3768,9 +3765,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>Rickshaw Puller</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -3816,9 +3810,6 @@
     <t>Bigari</t>
   </si>
   <si>
-    <t>58,75</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
@@ -3846,9 +3837,6 @@
     <t>53</t>
   </si>
   <si>
-    <t>Aaya</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -4000,6 +3988,59 @@
   </si>
   <si>
     <t>07</t>
+  </si>
+  <si>
+    <t>20,21</t>
+  </si>
+  <si>
+    <t>6,30</t>
+  </si>
+  <si>
+    <t>16,32,36</t>
+  </si>
+  <si>
+    <t>46,48</t>
+  </si>
+  <si>
+    <t>45,47,56</t>
+  </si>
+  <si>
+    <t>11,60</t>
+  </si>
+  <si>
+    <t>55,63,75,98</t>
+  </si>
+  <si>
+    <t>8,64,74</t>
+  </si>
+  <si>
+    <t>54,80,99</t>
+  </si>
+  <si>
+    <t>67,68,78,86</t>
+  </si>
+  <si>
+    <t>9,10,88</t>
+  </si>
+  <si>
+    <t>Rickshaw Puller (rename - Rickshaw/Driver/cycle)</t>
+  </si>
+  <si>
+    <t>Rickshaw Puller(rename - auto rickshaw driver)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aaya </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(rename - hospital work)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4420,7 +4461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5465,7 +5508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K624"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="D585" sqref="D585"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13608,8 +13653,8 @@
       <c r="I540" s="5">
         <v>434</v>
       </c>
-      <c r="J540">
-        <v>6</v>
+      <c r="J540" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
@@ -13650,8 +13695,8 @@
       <c r="I542" s="5">
         <v>434</v>
       </c>
-      <c r="J542">
-        <v>8</v>
+      <c r="J542" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
@@ -13675,7 +13720,7 @@
         <v>434</v>
       </c>
       <c r="J543" s="20" t="s">
-        <v>1180</v>
+        <v>1326</v>
       </c>
       <c r="K543" s="16"/>
     </row>
@@ -13684,10 +13729,10 @@
         <v>1161</v>
       </c>
       <c r="C544" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D544" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="D544" s="1" t="s">
-        <v>1182</v>
       </c>
       <c r="G544" s="13"/>
       <c r="H544" t="s">
@@ -13696,8 +13741,8 @@
       <c r="I544" s="5">
         <v>434</v>
       </c>
-      <c r="J544">
-        <v>11</v>
+      <c r="J544" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
@@ -13705,10 +13750,10 @@
         <v>1161</v>
       </c>
       <c r="C545" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D545" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="D545" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="G545" s="13"/>
       <c r="H545" t="s">
@@ -13726,10 +13771,10 @@
         <v>1161</v>
       </c>
       <c r="C546" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D546" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="D546" s="1" t="s">
-        <v>1186</v>
       </c>
       <c r="G546" s="13"/>
       <c r="H546" t="s">
@@ -13747,10 +13792,10 @@
         <v>1161</v>
       </c>
       <c r="C547" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D547" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="D547" s="1" t="s">
-        <v>1188</v>
       </c>
       <c r="G547" s="13"/>
       <c r="H547" t="s">
@@ -13768,10 +13813,10 @@
         <v>1161</v>
       </c>
       <c r="C548" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D548" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="D548" s="1" t="s">
-        <v>1190</v>
       </c>
       <c r="G548" s="13"/>
       <c r="H548" t="s">
@@ -13789,10 +13834,10 @@
         <v>1161</v>
       </c>
       <c r="C549" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D549" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="D549" s="1" t="s">
-        <v>1192</v>
       </c>
       <c r="G549" s="13"/>
       <c r="H549" t="s">
@@ -13801,8 +13846,8 @@
       <c r="I549" s="5">
         <v>434</v>
       </c>
-      <c r="J549">
-        <v>16</v>
+      <c r="J549" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
@@ -13810,10 +13855,10 @@
         <v>1161</v>
       </c>
       <c r="C550" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D550" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="D550" s="1" t="s">
-        <v>1194</v>
       </c>
       <c r="G550" s="13"/>
       <c r="H550" t="s">
@@ -13831,10 +13876,10 @@
         <v>1161</v>
       </c>
       <c r="C551" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D551" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="D551" s="1" t="s">
-        <v>1196</v>
       </c>
       <c r="G551" s="13"/>
       <c r="H551" t="s">
@@ -13852,10 +13897,10 @@
         <v>1161</v>
       </c>
       <c r="C552" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D552" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="D552" s="1" t="s">
-        <v>1198</v>
       </c>
       <c r="G552" s="13"/>
       <c r="H552" t="s">
@@ -13874,10 +13919,10 @@
         <v>1161</v>
       </c>
       <c r="C553" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D553" s="17" t="s">
         <v>1199</v>
-      </c>
-      <c r="D553" s="17" t="s">
-        <v>1200</v>
       </c>
       <c r="E553" s="16"/>
       <c r="F553" s="16"/>
@@ -13888,7 +13933,9 @@
       <c r="I553" s="19">
         <v>434</v>
       </c>
-      <c r="J553" s="16"/>
+      <c r="J553" s="16" t="s">
+        <v>1316</v>
+      </c>
       <c r="K553" s="16"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
@@ -13896,10 +13943,10 @@
         <v>1161</v>
       </c>
       <c r="C554" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D554" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="D554" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="G554" s="13"/>
       <c r="H554" t="s">
@@ -13917,10 +13964,10 @@
         <v>1161</v>
       </c>
       <c r="C555" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D555" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="D555" s="1" t="s">
-        <v>1204</v>
       </c>
       <c r="G555" s="13"/>
       <c r="H555" t="s">
@@ -13938,10 +13985,10 @@
         <v>1161</v>
       </c>
       <c r="C556" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D556" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="D556" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="G556" s="13"/>
       <c r="H556" t="s">
@@ -13959,10 +14006,10 @@
         <v>1161</v>
       </c>
       <c r="C557" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D557" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="D557" s="1" t="s">
-        <v>1208</v>
       </c>
       <c r="G557" s="13"/>
       <c r="H557" t="s">
@@ -13980,10 +14027,10 @@
         <v>1161</v>
       </c>
       <c r="C558" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D558" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="D558" s="1" t="s">
-        <v>1210</v>
       </c>
       <c r="G558" s="13"/>
       <c r="H558" t="s">
@@ -14001,10 +14048,10 @@
         <v>1161</v>
       </c>
       <c r="C559" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D559" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="D559" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="G559" s="13"/>
       <c r="H559" t="s">
@@ -14022,10 +14069,10 @@
         <v>1161</v>
       </c>
       <c r="C560" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D560" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="D560" s="1" t="s">
-        <v>1214</v>
       </c>
       <c r="G560" s="13"/>
       <c r="H560" t="s">
@@ -14043,10 +14090,10 @@
         <v>1161</v>
       </c>
       <c r="C561" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D561" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="D561" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="G561" s="13"/>
       <c r="H561" t="s">
@@ -14064,10 +14111,10 @@
         <v>1161</v>
       </c>
       <c r="C562" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D562" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="D562" s="1" t="s">
-        <v>1218</v>
       </c>
       <c r="G562" s="13"/>
       <c r="H562" t="s">
@@ -14085,10 +14132,10 @@
         <v>1161</v>
       </c>
       <c r="C563" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D563" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="D563" s="1" t="s">
-        <v>1220</v>
       </c>
       <c r="G563" s="13"/>
       <c r="H563" t="s">
@@ -14106,10 +14153,10 @@
         <v>1161</v>
       </c>
       <c r="C564" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D564" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="D564" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="G564" s="13"/>
       <c r="H564" t="s">
@@ -14127,10 +14174,10 @@
         <v>1161</v>
       </c>
       <c r="C565" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D565" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="D565" s="1" t="s">
-        <v>1224</v>
       </c>
       <c r="G565" s="13"/>
       <c r="H565" t="s">
@@ -14148,10 +14195,10 @@
         <v>1161</v>
       </c>
       <c r="C566" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D566" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="D566" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="G566" s="13"/>
       <c r="H566" t="s">
@@ -14169,10 +14216,10 @@
         <v>1161</v>
       </c>
       <c r="C567" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D567" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="D567" s="1" t="s">
-        <v>1228</v>
       </c>
       <c r="G567" s="13"/>
       <c r="H567" t="s">
@@ -14190,10 +14237,10 @@
         <v>1161</v>
       </c>
       <c r="C568" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D568" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="D568" s="1" t="s">
-        <v>1230</v>
       </c>
       <c r="G568" s="13"/>
       <c r="H568" t="s">
@@ -14211,10 +14258,10 @@
         <v>1161</v>
       </c>
       <c r="C569" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D569" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="D569" s="1" t="s">
-        <v>1232</v>
       </c>
       <c r="G569" s="13"/>
       <c r="H569" t="s">
@@ -14232,10 +14279,10 @@
         <v>1161</v>
       </c>
       <c r="C570" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D570" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="D570" s="1" t="s">
-        <v>1234</v>
       </c>
       <c r="G570" s="13"/>
       <c r="H570" t="s">
@@ -14253,10 +14300,10 @@
         <v>1161</v>
       </c>
       <c r="C571" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D571" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="D571" s="1" t="s">
-        <v>1236</v>
       </c>
       <c r="G571" s="13"/>
       <c r="H571" t="s">
@@ -14274,10 +14321,10 @@
         <v>1161</v>
       </c>
       <c r="C572" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D572" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="D572" s="1" t="s">
-        <v>1238</v>
       </c>
       <c r="G572" s="13"/>
       <c r="H572" t="s">
@@ -14295,10 +14342,10 @@
         <v>1161</v>
       </c>
       <c r="C573" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D573" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="D573" s="1" t="s">
-        <v>1240</v>
       </c>
       <c r="G573" s="13"/>
       <c r="H573" t="s">
@@ -14317,10 +14364,10 @@
         <v>1161</v>
       </c>
       <c r="C574" s="17" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D574" s="17" t="s">
-        <v>1242</v>
+        <v>1327</v>
       </c>
       <c r="E574" s="16"/>
       <c r="F574" s="16"/>
@@ -14331,8 +14378,8 @@
       <c r="I574" s="19">
         <v>434</v>
       </c>
-      <c r="J574" s="16">
-        <v>45</v>
+      <c r="J574" s="16" t="s">
+        <v>1320</v>
       </c>
       <c r="K574" s="16"/>
     </row>
@@ -14342,10 +14389,10 @@
         <v>1161</v>
       </c>
       <c r="C575" s="17" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D575" s="17" t="s">
-        <v>1242</v>
+        <v>1328</v>
       </c>
       <c r="E575" s="16"/>
       <c r="F575" s="16"/>
@@ -14356,7 +14403,9 @@
       <c r="I575" s="19">
         <v>434</v>
       </c>
-      <c r="J575" s="16"/>
+      <c r="J575" s="16" t="s">
+        <v>1319</v>
+      </c>
       <c r="K575" s="16"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
@@ -14364,10 +14413,10 @@
         <v>1161</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G576" s="13"/>
       <c r="H576" t="s">
@@ -14385,10 +14434,10 @@
         <v>1161</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G577" s="13"/>
       <c r="H577" t="s">
@@ -14406,10 +14455,10 @@
         <v>1161</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G578" s="13"/>
       <c r="H578" t="s">
@@ -14427,10 +14476,10 @@
         <v>1161</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G579" s="13"/>
       <c r="H579" t="s">
@@ -14448,10 +14497,10 @@
         <v>1161</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G580" s="13"/>
       <c r="H580" t="s">
@@ -14469,10 +14518,10 @@
         <v>1161</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G581" s="13"/>
       <c r="H581" t="s">
@@ -14490,10 +14539,10 @@
         <v>1161</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G582" s="13"/>
       <c r="H582" t="s">
@@ -14502,8 +14551,8 @@
       <c r="I582" s="5">
         <v>434</v>
       </c>
-      <c r="J582" s="21" t="s">
-        <v>1258</v>
+      <c r="J582" s="21">
+        <v>58</v>
       </c>
     </row>
     <row r="583" spans="2:10" x14ac:dyDescent="0.25">
@@ -14511,10 +14560,10 @@
         <v>1161</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="G583" s="13"/>
       <c r="H583" t="s">
@@ -14532,10 +14581,10 @@
         <v>1161</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="G584" s="13"/>
       <c r="H584" t="s">
@@ -14553,10 +14602,10 @@
         <v>1161</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="G585" s="13"/>
       <c r="H585" t="s">
@@ -14574,10 +14623,10 @@
         <v>1161</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="G586" s="13"/>
       <c r="H586" t="s">
@@ -14595,10 +14644,10 @@
         <v>1161</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D587" s="1" t="s">
-        <v>1268</v>
+        <v>1264</v>
+      </c>
+      <c r="D587" s="15" t="s">
+        <v>1329</v>
       </c>
       <c r="G587" s="13"/>
       <c r="H587" t="s">
@@ -14607,8 +14656,8 @@
       <c r="I587" s="5">
         <v>434</v>
       </c>
-      <c r="J587">
-        <v>67</v>
+      <c r="J587" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="588" spans="2:10" x14ac:dyDescent="0.25">
@@ -14616,10 +14665,10 @@
         <v>1161</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G588" s="13"/>
       <c r="H588" t="s">
@@ -14637,10 +14686,10 @@
         <v>1161</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="G589" s="13"/>
       <c r="H589" t="s">
@@ -14658,10 +14707,10 @@
         <v>1161</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G590" s="13"/>
       <c r="H590" t="s">
@@ -14679,10 +14728,10 @@
         <v>1161</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G591" s="13"/>
       <c r="H591" t="s">
@@ -14700,10 +14749,10 @@
         <v>1161</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="G592" s="13"/>
       <c r="H592" t="s">
@@ -14721,10 +14770,10 @@
         <v>1161</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G593" s="13"/>
       <c r="H593" t="s">
@@ -14742,10 +14791,10 @@
         <v>1161</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G594" s="13"/>
       <c r="H594" t="s">
@@ -14763,10 +14812,10 @@
         <v>1161</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G595" s="13"/>
       <c r="H595" t="s">
@@ -14784,10 +14833,10 @@
         <v>1161</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="G596" s="13"/>
       <c r="H596" t="s">
@@ -14805,10 +14854,10 @@
         <v>1161</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G597" s="13"/>
       <c r="H597" t="s">
@@ -14826,10 +14875,10 @@
         <v>1161</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G598" s="13"/>
       <c r="H598" t="s">
@@ -14847,10 +14896,10 @@
         <v>1161</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G599" s="13"/>
       <c r="H599" t="s">
@@ -14868,10 +14917,10 @@
         <v>1161</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G600" s="13"/>
       <c r="H600" t="s">
@@ -14880,8 +14929,8 @@
       <c r="I600" s="5">
         <v>434</v>
       </c>
-      <c r="J600">
-        <v>98</v>
+      <c r="J600" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
@@ -14889,10 +14938,10 @@
         <v>1161</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="G601" s="13"/>
       <c r="H601" t="s">
@@ -14901,8 +14950,8 @@
       <c r="I601" s="5">
         <v>434</v>
       </c>
-      <c r="J601">
-        <v>99</v>
+      <c r="J601" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
@@ -14920,37 +14969,37 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B603" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="G603" s="13"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B604" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="G604" s="13"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B605" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G605" s="13"/>
     </row>
@@ -14969,37 +15018,37 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B607" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="G607" s="13"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B608" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="G608" s="13"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B609" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="G609" s="13"/>
     </row>
@@ -15018,13 +15067,13 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B611" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="G611" s="13"/>
       <c r="H611" s="17" t="s">
@@ -15039,13 +15088,13 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B612" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="G612" s="13"/>
       <c r="H612" s="15" t="s">
@@ -15060,13 +15109,13 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B613" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="G613" s="13"/>
       <c r="H613" s="17" t="s">
@@ -15094,85 +15143,85 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B615" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G615" s="13"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B616" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="G616" s="13"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B617" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="G617" s="13"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B618" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C618" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="C618" s="1" t="s">
-        <v>1313</v>
-      </c>
       <c r="D618" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="G618" s="13"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B619" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="G619" s="13"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B620" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="G620" s="13"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B621" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G621" s="13"/>
     </row>
@@ -15197,5 +15246,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/old_data_migration_to_xml/FilesToRead/MappedExcel_Pune/FF_Old_New_QuestionMapping_Parag.xlsx
+++ b/scripts/old_data_migration_to_xml/FilesToRead/MappedExcel_Pune/FF_Old_New_QuestionMapping_Parag.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FFOldNewQuesMapping" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1336">
   <si>
     <t>begin_group</t>
   </si>
@@ -4023,24 +4023,31 @@
     <t>9,10,88</t>
   </si>
   <si>
-    <t>Rickshaw Puller (rename - Rickshaw/Driver/cycle)</t>
-  </si>
-  <si>
-    <t>Rickshaw Puller(rename - auto rickshaw driver)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aaya </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(rename - hospital work)</t>
-    </r>
+    <t>Rickshaw/Puller/Driver</t>
+  </si>
+  <si>
+    <t>Auto Rickshaw/Cycle-Rickshaw driver</t>
+  </si>
+  <si>
+    <t>Hospital work</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Compounder</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Salesman</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -5506,10 +5513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K624"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
-    <sheetView topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="D585" sqref="D585"/>
+    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="A604" sqref="A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14366,7 +14373,7 @@
       <c r="C574" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="D574" s="17" t="s">
+      <c r="D574" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="E574" s="16"/>
@@ -14391,7 +14398,7 @@
       <c r="C575" s="17" t="s">
         <v>1241</v>
       </c>
-      <c r="D575" s="17" t="s">
+      <c r="D575" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="E575" s="16"/>
@@ -14646,7 +14653,7 @@
       <c r="C587" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D587" s="15" t="s">
+      <c r="D587" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="G587" s="13"/>
@@ -14955,237 +14962,264 @@
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="14"/>
-      <c r="B602" s="3"/>
-      <c r="C602" s="3"/>
-      <c r="D602" s="3"/>
-      <c r="E602" s="14"/>
-      <c r="F602" s="14"/>
+      <c r="B602" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>1331</v>
+      </c>
       <c r="G602" s="13"/>
-      <c r="H602" s="14"/>
-      <c r="I602" s="14"/>
-      <c r="J602" s="14"/>
-      <c r="K602" s="14"/>
+      <c r="H602" t="s">
+        <v>70</v>
+      </c>
+      <c r="I602" s="5">
+        <v>434</v>
+      </c>
+      <c r="J602">
+        <v>66</v>
+      </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B603" s="1" t="s">
-        <v>1293</v>
+        <v>1161</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1152</v>
+        <v>1332</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1294</v>
+        <v>1333</v>
       </c>
       <c r="G603" s="13"/>
+      <c r="H603" t="s">
+        <v>70</v>
+      </c>
+      <c r="I603" s="5">
+        <v>434</v>
+      </c>
+      <c r="J603">
+        <v>83</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B604" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G604" s="13"/>
+      <c r="H604" t="s">
+        <v>70</v>
+      </c>
+      <c r="I604" s="5">
+        <v>434</v>
+      </c>
+      <c r="J604">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="14"/>
+      <c r="B605" s="3"/>
+      <c r="C605" s="3"/>
+      <c r="D605" s="3"/>
+      <c r="E605" s="14"/>
+      <c r="F605" s="14"/>
+      <c r="G605" s="13"/>
+      <c r="H605" s="14"/>
+      <c r="I605" s="14"/>
+      <c r="J605" s="14"/>
+      <c r="K605" s="14"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B606" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C604" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D604" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G604" s="13"/>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B605" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C605" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D605" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G605" s="13"/>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="14"/>
-      <c r="B606" s="3"/>
-      <c r="C606" s="3"/>
-      <c r="D606" s="3"/>
-      <c r="E606" s="14"/>
-      <c r="F606" s="14"/>
+      <c r="C606" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>1294</v>
+      </c>
       <c r="G606" s="13"/>
-      <c r="H606" s="14"/>
-      <c r="I606" s="14"/>
-      <c r="J606" s="14"/>
-      <c r="K606" s="14"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B607" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="G607" s="13"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B608" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G608" s="13"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="14"/>
+      <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
+      <c r="D609" s="3"/>
+      <c r="E609" s="14"/>
+      <c r="F609" s="14"/>
+      <c r="G609" s="13"/>
+      <c r="H609" s="14"/>
+      <c r="I609" s="14"/>
+      <c r="J609" s="14"/>
+      <c r="K609" s="14"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B610" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="C608" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D608" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G608" s="13"/>
-    </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B609" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D609" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G609" s="13"/>
-    </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="14"/>
-      <c r="B610" s="3"/>
-      <c r="C610" s="3"/>
-      <c r="D610" s="3"/>
-      <c r="E610" s="14"/>
-      <c r="F610" s="14"/>
-      <c r="G610" s="14"/>
-      <c r="H610" s="14"/>
-      <c r="I610" s="14"/>
-      <c r="J610" s="14"/>
-      <c r="K610" s="14"/>
+      <c r="C610" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G610" s="13"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B611" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="G611" s="13"/>
-      <c r="H611" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I611" s="22">
-        <v>564</v>
-      </c>
-      <c r="J611" s="11">
-        <v>3</v>
-      </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B612" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G612" s="13"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="14"/>
+      <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="14"/>
+      <c r="F613" s="14"/>
+      <c r="G613" s="14"/>
+      <c r="H613" s="14"/>
+      <c r="I613" s="14"/>
+      <c r="J613" s="14"/>
+      <c r="K613" s="14"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B614" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="C612" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D612" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G612" s="13"/>
-      <c r="H612" s="15" t="s">
+      <c r="C614" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G614" s="13"/>
+      <c r="H614" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I612" s="5">
+      <c r="I614" s="22">
         <v>564</v>
       </c>
-      <c r="J612">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B613" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C613" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D613" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G613" s="13"/>
-      <c r="H613" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I613" s="22">
-        <v>564</v>
-      </c>
-      <c r="J613" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="14"/>
-      <c r="B614" s="3"/>
-      <c r="C614" s="3"/>
-      <c r="D614" s="3"/>
-      <c r="E614" s="14"/>
-      <c r="F614" s="14"/>
-      <c r="G614" s="13"/>
-      <c r="H614" s="14"/>
-      <c r="I614" s="14"/>
-      <c r="J614" s="14"/>
-      <c r="K614" s="14"/>
+      <c r="J614" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B615" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G615" s="13"/>
+      <c r="H615" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I615" s="5">
+        <v>564</v>
+      </c>
+      <c r="J615">
+        <v>2</v>
+      </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B616" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="G616" s="13"/>
+      <c r="H616" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I616" s="22">
+        <v>564</v>
+      </c>
+      <c r="J616" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B617" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C617" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D617" s="1" t="s">
-        <v>1308</v>
-      </c>
+      <c r="A617" s="14"/>
+      <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
+      <c r="D617" s="3"/>
+      <c r="E617" s="14"/>
+      <c r="F617" s="14"/>
       <c r="G617" s="13"/>
+      <c r="H617" s="14"/>
+      <c r="I617" s="14"/>
+      <c r="J617" s="14"/>
+      <c r="K617" s="14"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B618" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1309</v>
+        <v>1152</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G618" s="13"/>
     </row>
@@ -15194,10 +15228,10 @@
         <v>1305</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1311</v>
+        <v>1154</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="G619" s="13"/>
     </row>
@@ -15206,10 +15240,10 @@
         <v>1305</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1313</v>
+        <v>1156</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="G620" s="13"/>
     </row>
@@ -15218,31 +15252,67 @@
         <v>1305</v>
       </c>
       <c r="C621" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G621" s="13"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B622" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G622" s="13"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B623" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G623" s="13"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B624" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C624" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="D621" s="1" t="s">
+      <c r="D624" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="G621" s="13"/>
-    </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="14"/>
-      <c r="B622" s="14"/>
-      <c r="C622" s="14"/>
-      <c r="D622" s="14"/>
-      <c r="E622" s="14"/>
-      <c r="F622" s="14"/>
-      <c r="G622" s="13"/>
-      <c r="H622" s="14"/>
-      <c r="I622" s="14"/>
-      <c r="J622" s="14"/>
-      <c r="K622" s="14"/>
-    </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G623" s="13"/>
-    </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G624" s="13"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="14"/>
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="D625" s="14"/>
+      <c r="E625" s="14"/>
+      <c r="F625" s="14"/>
+      <c r="G625" s="13"/>
+      <c r="H625" s="14"/>
+      <c r="I625" s="14"/>
+      <c r="J625" s="14"/>
+      <c r="K625" s="14"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G626" s="13"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G627" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
